--- a/Medium Instances 1,5/Medium4,1.5.xlsx
+++ b/Medium Instances 1,5/Medium4,1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Medium Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD0F8B-3EE9-4F28-B026-263E39EF1B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29117E6C-A004-4D2E-84D8-5F3E1E50B574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6510" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium4" sheetId="13" r:id="rId1"/>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1202,30 +1202,30 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>64.5</v>
+        <v>66</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1256,50 +1256,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B27" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Tofterøy</v>
+        <v>Foldnes</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C27" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.0525099999999998</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D27" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.185890000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>560.93471270999999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6681.8976936899999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1332,50 +1332,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>58.5</v>
+        <v>37.5</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1405,23 +1405,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.72550183600003</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>67.5</v>
+        <v>37.5</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1478,50 +1478,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>55.5</v>
+        <v>42</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1551,50 +1551,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Arefjord</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E8" ca="1" si="9">C7*111.021</f>
-        <v>553.10906446199999</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F8" ca="1" si="10">D7*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J8" ca="1" si="11">H7*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K8" ca="1" si="12">I7*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1615,23 +1615,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Blomøy</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1679,23 +1679,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>34.5</v>
+        <v>72</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1740,50 +1740,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Vorland</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.92138472300007</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6701.1004409549996</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>64.5</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1801,23 +1801,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.743133779</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1863,23 +1863,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Blomøy</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>25.5</v>
+        <v>64.5</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1927,23 +1927,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>570.662150688</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>34.5</v>
+        <v>42</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1988,50 +1988,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.72550183600003</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2049,23 +2049,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>37.5</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2110,50 +2110,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Landro</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>551.464510389</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2171,23 +2171,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>531.88684520700008</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6734.6472124410002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>106.5</v>
+        <v>40.5</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2232,50 +2232,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Vågo</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.388821</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="15">C18*111.021</f>
-        <v>543.19777570799999</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6721.0012882680003</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="16">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2293,23 +2293,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>554.37814551299994</v>
+        <v>570.662150688</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4084226710002</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2367,50 +2367,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Vorland</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>531.88684520700008</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6734.6472124410002</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>103.5</v>
+        <v>54</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2443,50 +2443,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Vågo</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388821</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>559.50231976800001</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>43.5</v>
+        <v>42</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2519,50 +2519,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>551.37569358899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6709.1102730419998</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>58.5</v>
+        <v>31.5</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2596,50 +2596,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tofterøy</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0525099999999998</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.185890000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>560.93471270999999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6681.8976936899999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>37.5</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2673,50 +2673,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Vorland</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>572.01061175400002</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>66</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2750,43 +2750,43 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>553.10906446199999</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6690.2990968439999</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
@@ -2829,50 +2829,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>43.5</v>
+        <v>27</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2908,23 +2908,23 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Arefjord</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>551.37569358899998</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6709.1102730419998</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>60</v>
+        <v>34.5</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -3318,18 +3318,20 @@
       <c r="R40" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="S40" s="41"/>
+      <c r="S40" s="41">
+        <v>30</v>
+      </c>
       <c r="T40" s="42">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="U40" s="43">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="V40" s="44">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -4123,23 +4125,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -4166,7 +4168,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -4184,50 +4186,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4265,30 +4267,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4306,50 +4308,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4367,50 +4369,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4429,50 +4431,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4493,50 +4495,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4545,50 +4547,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4597,50 +4599,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4649,23 +4651,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4692,7 +4694,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4701,50 +4703,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4753,23 +4755,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4796,7 +4798,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4805,50 +4807,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4870,50 +4872,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4937,23 +4939,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4980,7 +4982,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -5004,50 +5006,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -5077,50 +5079,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5170,30 +5172,30 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5224,50 +5226,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5294,50 +5296,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6355,23 +6357,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -6398,7 +6400,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -6416,50 +6418,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -6477,50 +6479,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6538,50 +6540,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6599,23 +6601,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6642,7 +6644,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6661,50 +6663,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6725,50 +6727,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6777,50 +6779,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6829,23 +6831,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6872,7 +6874,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6881,50 +6883,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6933,50 +6935,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6985,23 +6987,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7028,7 +7030,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -7037,50 +7039,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8293,50 +8295,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8354,43 +8356,43 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
@@ -8435,30 +8437,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8476,50 +8478,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8537,50 +8539,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8599,50 +8601,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8663,50 +8665,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8715,50 +8717,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8767,50 +8769,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8839,30 +8841,30 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -9963,50 +9965,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10033,50 +10035,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -10103,50 +10105,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10164,23 +10166,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10207,7 +10209,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10225,50 +10227,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10347,50 +10349,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10409,23 +10411,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10452,7 +10454,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10473,43 +10475,43 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
@@ -11566,50 +11568,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -11636,50 +11638,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -11706,23 +11708,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -11749,7 +11751,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -11776,50 +11778,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11837,50 +11839,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11898,50 +11900,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11979,30 +11981,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12020,50 +12022,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13148,23 +13150,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -13191,7 +13193,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -13218,50 +13220,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13288,23 +13290,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13331,7 +13333,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances 1,5/Medium4,1.5.xlsx
+++ b/Medium Instances 1,5/Medium4,1.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Medium Instances 1,5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29117E6C-A004-4D2E-84D8-5F3E1E50B574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFA5407-E451-463C-B030-8BF70159ACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6510" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium4" sheetId="13" r:id="rId1"/>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1182,50 +1182,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Vorland</v>
+        <v>Spjeld</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.0677450000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.227445000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>562.62611764500002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6686.5111713450005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>37.5</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1256,50 +1256,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B27" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Foldnes</v>
+        <v>Landro</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C27" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D27" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.375988</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>551.464510389</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>42</v>
+        <v>49.5</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1332,50 +1332,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Rongøy</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>61.5</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1405,50 +1405,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Kleppe</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H27" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I26" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1478,23 +1478,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Vågo</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388821</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1551,23 +1551,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Vågo</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.388821</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E8" ca="1" si="9">C7*111.021</f>
-        <v>570.92138472300007</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F8" ca="1" si="10">D7*111.021</f>
-        <v>6701.1004409549996</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1615,50 +1615,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>543.19777570799999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6721.0012882680003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>78</v>
+        <v>31.5</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1679,50 +1679,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Vågo</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388821</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1740,50 +1740,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.62611764500002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6686.5111713450005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>64.5</v>
+        <v>37.5</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1801,23 +1801,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>16.5</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1863,50 +1863,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Vågo</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.388821</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>543.19777570799999</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6721.0012882680003</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>64.5</v>
+        <v>37.5</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1927,23 +1927,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.25994</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.662150688</v>
+        <v>565.89468690599995</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6698.5706054279999</v>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>42</v>
+        <v>61.5</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1988,50 +1988,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.25994</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>565.89468690599995</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>36</v>
+        <v>49.5</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2049,50 +2049,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>570.662150688</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2110,50 +2110,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Arefjord</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>54</v>
+        <v>28.5</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2171,50 +2171,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>40.5</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2232,23 +2232,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Arefjord</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="15">C18*111.021</f>
-        <v>568.93444188599995</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4272962410005</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>28.5</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2293,23 +2293,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>570.662150688</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6698.5706054279999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2367,50 +2367,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Solsvik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>562.62611764500002</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6686.5111713450005</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2443,50 +2443,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Arefjord</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>568.93444188599995</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4272962410005</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>42</v>
+        <v>34.5</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2519,50 +2519,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>70.5</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2596,23 +2596,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Blomøy</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>572.01061175400002</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>78</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2673,50 +2673,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>562.62611764500002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6686.5111713450005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>49.5</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2750,23 +2750,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tofterøy</v>
+        <v>Solsvik</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0525099999999998</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.185890000000001</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>560.93471270999999</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6681.8976936899999</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2829,50 +2829,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2908,50 +2908,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Telavåg</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>570.92138472300007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.1004409549996</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="20">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>34.5</v>
+        <v>70.5</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4125,23 +4125,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -4186,50 +4186,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4247,50 +4247,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4308,23 +4308,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4369,23 +4369,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4431,50 +4431,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4495,50 +4495,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4547,23 +4547,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4599,50 +4599,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4651,23 +4651,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4703,50 +4703,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4755,50 +4755,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4807,50 +4807,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4892,30 +4892,30 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4939,23 +4939,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -5006,50 +5006,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -5079,50 +5079,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5152,50 +5152,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5226,50 +5226,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5316,30 +5316,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6357,50 +6357,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -6418,43 +6418,43 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
@@ -6499,30 +6499,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6540,50 +6540,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6601,23 +6601,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6663,50 +6663,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6727,23 +6727,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6779,50 +6779,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6831,50 +6831,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6883,50 +6883,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6935,23 +6935,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6987,50 +6987,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -7039,50 +7039,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8295,23 +8295,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -8356,50 +8356,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8417,50 +8417,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8478,50 +8478,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8539,50 +8539,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8621,30 +8621,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8665,50 +8665,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8717,50 +8717,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8789,30 +8789,30 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8821,50 +8821,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -9965,50 +9965,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10105,50 +10105,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10166,50 +10166,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10227,50 +10227,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10288,50 +10288,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10349,50 +10349,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10431,30 +10431,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10495,30 +10495,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11568,23 +11568,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -11638,23 +11638,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -11708,23 +11708,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -11798,30 +11798,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11839,50 +11839,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11900,50 +11900,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11961,50 +11961,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12022,23 +12022,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13170,30 +13170,30 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -13220,50 +13220,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13290,43 +13290,43 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>

--- a/Medium Instances 1,5/Medium4,1.5.xlsx
+++ b/Medium Instances 1,5/Medium4,1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFA5407-E451-463C-B030-8BF70159ACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5985CFB9-88CE-45B4-BAF8-DF3060DA73A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17160" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium4" sheetId="13" r:id="rId1"/>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1182,43 +1182,43 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
@@ -1256,50 +1256,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B27" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Landro</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C27" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>4.9672090000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D27" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.423364999999997</v>
+        <v>60.354616</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1332,23 +1332,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.25994</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.72550183600003</v>
+        <v>565.89468690599995</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>61.5</v>
+        <v>55.5</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1405,50 +1405,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Solsvik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.19997026499993</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6682.1108540100004</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H27" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I26" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1478,43 +1478,43 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.93444188599995</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4272962410005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
@@ -1551,50 +1551,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E8" ca="1" si="9">C7*111.021</f>
-        <v>568.93444188599995</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F8" ca="1" si="10">D7*111.021</f>
-        <v>6704.4272962410005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J8" ca="1" si="11">H7*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K8" ca="1" si="12">I7*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1615,50 +1615,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>27</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1679,50 +1679,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.93444188599995</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4272962410005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>42</v>
+        <v>34.5</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1740,50 +1740,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Solsvik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>58.5</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1801,50 +1801,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Hammersland</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>562.743133779</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>16.5</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1863,50 +1863,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.93444188599995</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4272962410005</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>93</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1927,50 +1927,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>565.89468690599995</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.1187987399999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>61.5</v>
+        <v>31.5</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1988,43 +1988,43 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Landro</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>565.89468690599995</v>
+        <v>551.464510389</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.1187987399999</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
@@ -2049,50 +2049,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.662150688</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6698.5706054279999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2110,50 +2110,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.92138472300007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6701.1004409549996</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>43.5</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2171,23 +2171,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Hammersland</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>562.743133779</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2232,50 +2232,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="15">C18*111.021</f>
-        <v>570.92138472300007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.1004409549996</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="16">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>39</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2293,50 +2293,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>568.57551099299997</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.8457587809999</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>103.5</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2367,23 +2367,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>551.37569358899998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6709.1102730419998</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>60</v>
+        <v>43.5</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2443,23 +2443,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>570.92138472300007</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.1004409549996</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>34.5</v>
+        <v>106.5</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2596,50 +2596,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Foldnes</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>543.19777570799999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6721.0012882680003</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>78</v>
+        <v>40.5</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2673,23 +2673,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Arefjord</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>554.37814551299994</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4084226710002</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>33</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2750,23 +2750,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>551.37569358899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6709.1102730419998</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>54</v>
+        <v>34.5</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2829,50 +2829,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Rongøy</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>554.37814551299994</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4084226710002</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>51</v>
+        <v>55.5</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2908,50 +2908,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="20">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>70.5</v>
+        <v>22.5</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4125,50 +4125,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -4186,50 +4186,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4247,50 +4247,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4308,23 +4308,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4369,50 +4369,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4431,50 +4431,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4495,50 +4495,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4547,50 +4547,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4599,50 +4599,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4651,23 +4651,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4755,50 +4755,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4807,50 +4807,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4872,23 +4872,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4939,50 +4939,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -5006,50 +5006,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -5079,50 +5079,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5152,23 +5152,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5226,50 +5226,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5296,23 +5296,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6357,50 +6357,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -6418,23 +6418,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -6479,50 +6479,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6540,50 +6540,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6601,23 +6601,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6663,50 +6663,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6727,50 +6727,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6779,23 +6779,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6831,50 +6831,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6883,50 +6883,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6935,50 +6935,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6987,50 +6987,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -7039,23 +7039,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8295,50 +8295,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8356,23 +8356,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8417,50 +8417,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8478,50 +8478,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8539,50 +8539,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8601,50 +8601,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8665,23 +8665,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8717,50 +8717,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8769,50 +8769,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8821,50 +8821,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -9965,50 +9965,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10035,50 +10035,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -10105,50 +10105,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10166,50 +10166,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10227,50 +10227,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10288,50 +10288,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10349,50 +10349,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10411,50 +10411,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10475,50 +10475,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11568,50 +11568,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -11638,50 +11638,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -11708,50 +11708,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -11778,50 +11778,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11839,50 +11839,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11900,23 +11900,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -11943,7 +11943,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11981,30 +11981,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12022,50 +12022,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13150,50 +13150,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -13220,50 +13220,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13290,23 +13290,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances 1,5/Medium4,1.5.xlsx
+++ b/Medium Instances 1,5/Medium4,1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5985CFB9-88CE-45B4-BAF8-DF3060DA73A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0D5DBB-9F23-47F6-9898-BD1F6B9E0886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium4" sheetId="13" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="96">
   <si>
     <t>Rider</t>
   </si>
@@ -338,6 +338,18 @@
   </si>
   <si>
     <t>0800, 0838</t>
+  </si>
+  <si>
+    <t>Ebbesvik</t>
+  </si>
+  <si>
+    <t>Kleppestø</t>
+  </si>
+  <si>
+    <t>Hammarsland</t>
+  </si>
+  <si>
+    <t>Træsneset</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8967E-DDA4-AF48-907C-081AAC0FA9EF}">
   <dimension ref="A1:AB932"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1181,51 +1193,51 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Brattholmen</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Ebbesvika</v>
       </c>
       <c r="C2" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1522740000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D2" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.354616</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.336067999999997</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>572.01061175400002</v>
+        <v>570.662150688</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
-        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$46,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>40.5</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1255,51 +1267,51 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B27" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Brattholmen</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Arefjord</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C27" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1522740000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D27" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.354616</v>
+        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.358854999999998</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f t="shared" ref="H3" ca="1" si="3">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>36</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$46,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>28.5</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1331,24 +1343,24 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Hellesøy</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.661020999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>565.89468690599995</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.1187987399999</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1374,8 +1386,8 @@
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>55.5</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$46,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>97.5</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1404,15 +1416,15 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
         <v>Solsvik</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">_xlfn.XLOOKUP(B5,$W$3:$W$25,$X$3:$X$25,0)</f>
         <v>4.9664089999999996</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">_xlfn.XLOOKUP(B5,$W$3:$W$25,$Y$3:$Y$25,0)</f>
         <v>60.431001999999999</v>
       </c>
       <c r="E5" s="5">
@@ -1428,11 +1440,11 @@
         <v>Årstad</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H27" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <f t="shared" ref="H5:H27" ca="1" si="4">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
         <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I5:I26" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f t="shared" ref="I5:I26" ca="1" si="5">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
@@ -1447,7 +1459,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$46,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$46))*1.5</f>
         <v>60</v>
       </c>
       <c r="N5" s="2">
@@ -1477,51 +1489,51 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>42</v>
+        <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$46,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>28.5</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1550,51 +1562,51 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Skogsvåg</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.25994</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7:E8" ca="1" si="9">C7*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E7:E8" ca="1" si="6">C7*111.021</f>
+        <v>565.89468690599995</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F8" ca="1" si="10">D7*111.021</f>
-        <v>6704.4084226710002</v>
+        <f t="shared" ref="F7:F8" ca="1" si="7">D7*111.021</f>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" ref="J7:J8" ca="1" si="11">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <f t="shared" ref="J7:J8" ca="1" si="8">H7*111.021</f>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7:K8" ca="1" si="12">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <f t="shared" ref="K7:K8" ca="1" si="9">I7*111.021</f>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>45</v>
+        <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$46,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>60</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1614,51 +1626,51 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
         <v>Hjelteryggen</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">_xlfn.XLOOKUP(B8,$W$3:$W$25,$X$3:$X$25,0)</f>
         <v>5.1544819999999998</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">_xlfn.XLOOKUP(B8,$W$3:$W$25,$Y$3:$Y$25,0)</f>
         <v>60.381360999999998</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>572.25574612200001</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="7"/>
         <v>6703.5990795810003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
-        <f t="shared" ref="I8" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <f t="shared" ref="I8" ca="1" si="10">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>27</v>
+        <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$46,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>31.5</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1678,51 +1690,51 @@
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Arefjord</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <f ca="1">_xlfn.XLOOKUP(B9,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <f ca="1">_xlfn.XLOOKUP(B9,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.358854999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" ref="G9:G27" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <f t="shared" ref="G9:G27" ca="1" si="11">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>34.5</v>
+        <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$46,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>22.5</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1739,51 +1751,51 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Blomøy</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <f ca="1">_xlfn.XLOOKUP(B10,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <f ca="1">_xlfn.XLOOKUP(B10,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.538108000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>58.5</v>
+        <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$46,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>70.5</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1800,51 +1812,51 @@
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B11,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B11,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.381360999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.743133779</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>51</v>
+        <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$46,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>31.5</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1862,51 +1874,51 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <f ca="1">_xlfn.XLOOKUP(B12,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <f ca="1">_xlfn.XLOOKUP(B12,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>531.88684520700008</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6734.6472124410002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>93</v>
+        <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$46,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>27</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1926,35 +1938,35 @@
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <f ca="1">_xlfn.XLOOKUP(B13,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <f ca="1">_xlfn.XLOOKUP(B13,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="5"/>
         <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
@@ -1969,8 +1981,8 @@
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
-        <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$46,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>25.5</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1987,51 +1999,51 @@
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <f ca="1">_xlfn.XLOOKUP(B14,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B14,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$46,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>40.5</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2048,60 +2060,60 @@
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B15,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <f ca="1">_xlfn.XLOOKUP(B15,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
-        <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$46,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>39</v>
       </c>
       <c r="W15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X15">
-        <v>5.1245659999999997</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="Y15">
-        <v>60.388821</v>
+        <v>60.358854999999998</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2109,60 +2121,60 @@
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Landro</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B16,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(B16,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.423364999999997</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>551.464510389</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
-        <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>43.5</v>
+        <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$46,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>49.5</v>
       </c>
       <c r="W16" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="X16">
-        <v>5.1424630000000002</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="Y16">
-        <v>60.358854999999998</v>
+        <v>60.336067999999997</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2170,60 +2182,60 @@
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Solsvik</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B17,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B17,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.431001999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.743133779</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
-        <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>51</v>
+        <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$46,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>48</v>
       </c>
       <c r="W17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X17">
-        <v>5.1401279999999998</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="Y17">
-        <v>60.336067999999997</v>
+        <v>60.423364999999997</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2231,60 +2243,60 @@
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Tofterøy</v>
       </c>
       <c r="C18" s="3">
+        <f ca="1">_xlfn.XLOOKUP(B18,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.0525099999999998</v>
+      </c>
+      <c r="D18" s="4">
+        <f ca="1">_xlfn.XLOOKUP(B18,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.185890000000001</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:F27" ca="1" si="12">C18*111.021</f>
+        <v>560.93471270999999</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6681.8976936899999</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
-      </c>
-      <c r="D18" s="4">
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I18" s="63">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" ref="E18:F27" ca="1" si="15">C18*111.021</f>
-        <v>554.37814551299994</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I18" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" ref="J18:K27" ca="1" si="16">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <f t="shared" ref="J18:K27" ca="1" si="13">H18*111.021</f>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
-        <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>39</v>
+        <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$46,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>72</v>
       </c>
       <c r="W18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="X18">
-        <v>4.9672090000000004</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="Y18">
-        <v>60.423364999999997</v>
+        <v>60.381360999999998</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2292,51 +2304,51 @@
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Arefjord</v>
       </c>
       <c r="C19" s="3">
+        <f ca="1">_xlfn.XLOOKUP(B19,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1424630000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <f ca="1">_xlfn.XLOOKUP(B19,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.358854999999998</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>570.92138472300007</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6701.1004409549996</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
-      </c>
-      <c r="D19" s="4">
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I19" s="63">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>531.88684520700008</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6734.6472124410002</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I19" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
-        <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>103.5</v>
+        <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$46,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>28.5</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2352,13 +2364,13 @@
         <v>33</v>
       </c>
       <c r="W19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X19">
-        <v>5.1544819999999998</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="Y19">
-        <v>60.381360999999998</v>
+        <v>60.25994</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2366,51 +2378,51 @@
         <v>26</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Foldnes</v>
       </c>
       <c r="C20" s="3">
+        <f ca="1">_xlfn.XLOOKUP(B20,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1065680000000002</v>
+      </c>
+      <c r="D20" s="4">
+        <f ca="1">_xlfn.XLOOKUP(B20,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.375988</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>566.93628592800007</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6703.0025637480003</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D20" s="4">
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I20" s="63">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I20" s="63">
-        <f t="shared" ca="1" si="8"/>
         <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="13"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="13"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
-        <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>43.5</v>
+        <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$46,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>42</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2428,13 +2440,13 @@
         <v>29</v>
       </c>
       <c r="W20" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="X20">
-        <v>5.0971859999999998</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="Y20">
-        <v>60.25994</v>
+        <v>60.187809999999999</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2442,51 +2454,51 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Brattholmen</v>
       </c>
       <c r="C21" s="3">
+        <f ca="1">_xlfn.XLOOKUP(B21,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1522740000000002</v>
+      </c>
+      <c r="D21" s="4">
+        <f ca="1">_xlfn.XLOOKUP(B21,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.354616</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>572.01061175400002</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6700.629822936</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
-      </c>
-      <c r="D21" s="4">
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I21" s="63">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>531.88684520700008</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6734.6472124410002</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I21" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
-        <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>106.5</v>
+        <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$46,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>25.5</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2504,13 +2516,13 @@
         <v>27</v>
       </c>
       <c r="W21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X21">
-        <v>5.1359649999999997</v>
-      </c>
-      <c r="Y21">
-        <v>60.187809999999999</v>
+        <v>4.9664089999999996</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>60.431001999999999</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2518,51 +2530,51 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Straume</v>
       </c>
       <c r="C22" s="3">
+        <f ca="1">_xlfn.XLOOKUP(B22,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1213329999999999</v>
+      </c>
+      <c r="D22" s="4">
+        <f ca="1">_xlfn.XLOOKUP(B22,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.356560999999999</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>568.57551099299997</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6700.8457587809999</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H22" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
-      </c>
-      <c r="D22" s="4">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I22" s="63">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>553.10906446199999</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6690.2990968439999</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I22" s="63">
-        <f t="shared" ca="1" si="8"/>
         <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="13"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="13"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
-        <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>70.5</v>
+        <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$46,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>33</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2580,13 +2592,13 @@
         <v>28</v>
       </c>
       <c r="W22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X22">
-        <v>4.9664089999999996</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="Y22" s="2">
-        <v>60.431001999999999</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="Z22" s="2"/>
     </row>
@@ -2595,51 +2607,51 @@
         <v>26</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Rongøy</v>
       </c>
       <c r="C23" s="3">
+        <f ca="1">_xlfn.XLOOKUP(B23,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>4.9155160000000002</v>
+      </c>
+      <c r="D23" s="4">
+        <f ca="1">_xlfn.XLOOKUP(B23,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.507615999999999</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>545.72550183600003</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6717.6160359360001</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H23" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
-      </c>
-      <c r="D23" s="4">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I23" s="63">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>566.93628592800007</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I23" s="63">
-        <f t="shared" ca="1" si="8"/>
         <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="13"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="13"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
-        <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>40.5</v>
+        <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$46,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>66</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2657,13 +2669,13 @@
         <v>52</v>
       </c>
       <c r="W23" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="X23">
-        <v>4.9155160000000002</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="Y23" s="2">
-        <v>60.507615999999999</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="Z23" s="2"/>
     </row>
@@ -2672,51 +2684,51 @@
         <v>26</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Foldnes</v>
       </c>
       <c r="C24" s="3">
+        <f ca="1">_xlfn.XLOOKUP(B24,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1065680000000002</v>
+      </c>
+      <c r="D24" s="4">
+        <f ca="1">_xlfn.XLOOKUP(B24,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.375988</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>566.93628592800007</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6703.0025637480003</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H24" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
-      </c>
-      <c r="D24" s="4">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I24" s="63">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>570.92138472300007</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6701.1004409549996</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I24" s="63">
-        <f t="shared" ca="1" si="8"/>
         <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="13"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="13"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
-        <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>33</v>
+        <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$46,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>40.5</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2734,13 +2746,13 @@
         <v>71</v>
       </c>
       <c r="W24" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="X24">
-        <v>5.0687990000000003</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>60.259569999999997</v>
+        <v>5.0677450000000004</v>
+      </c>
+      <c r="Y24">
+        <v>60.227445000000003</v>
       </c>
       <c r="Z24" s="3"/>
     </row>
@@ -2749,51 +2761,51 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Hammersland</v>
       </c>
       <c r="C25" s="3">
+        <f ca="1">_xlfn.XLOOKUP(B25,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.0687990000000003</v>
+      </c>
+      <c r="D25" s="4">
+        <f ca="1">_xlfn.XLOOKUP(B25,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.259569999999997</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>562.743133779</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6690.07772097</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H25" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
-      </c>
-      <c r="D25" s="4">
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I25" s="63">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I25" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
-        <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>34.5</v>
+        <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$46,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>57</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2802,25 +2814,25 @@
         <v>20</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:T47" si="17">S25+7</f>
+        <f t="shared" ref="T25:T46" si="14">S25+7</f>
         <v>27</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" ref="U25:U47" si="18">S25+4</f>
+        <f t="shared" ref="U25:U46" si="15">S25+4</f>
         <v>24</v>
       </c>
       <c r="V25" s="24">
-        <f t="shared" ref="V25:V47" si="19">S25+8</f>
+        <f t="shared" ref="V25:V46" si="16">S25+8</f>
         <v>28</v>
       </c>
       <c r="W25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X25">
-        <v>5.0677450000000004</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="Y25">
-        <v>60.227445000000003</v>
+        <v>60.185890000000001</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2828,78 +2840,69 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Kolltveit</v>
       </c>
       <c r="C26" s="3">
+        <f ca="1">_xlfn.XLOOKUP(B26,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.0878129999999997</v>
+      </c>
+      <c r="D26" s="4">
+        <f ca="1">_xlfn.XLOOKUP(B26,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.352223000000002</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>564.85408707299996</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6700.3641496830005</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H26" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
-      </c>
-      <c r="D26" s="4">
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I26" s="63">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>545.72550183600003</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6717.6160359360001</v>
-      </c>
-      <c r="G26" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I26" s="63">
-        <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
-        <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>55.5</v>
+        <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$46,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>40.5</v>
       </c>
       <c r="R26" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="S26" s="15">
+        <v>39</v>
+      </c>
+      <c r="S26" s="33">
+        <v>17</v>
+      </c>
+      <c r="T26" s="23">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="U26" s="15">
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
-      <c r="T26" s="24">
-        <f t="shared" si="17"/>
-        <v>28</v>
-      </c>
-      <c r="U26" s="17">
-        <f t="shared" si="18"/>
+      <c r="V26" s="17">
+        <f t="shared" si="16"/>
         <v>25</v>
-      </c>
-      <c r="V26" s="18">
-        <f t="shared" si="19"/>
-        <v>29</v>
-      </c>
-      <c r="W26" t="s">
-        <v>59</v>
-      </c>
-      <c r="X26">
-        <v>5.0525099999999998</v>
-      </c>
-      <c r="Y26">
-        <v>60.185890000000001</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2907,69 +2910,69 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Rongøy</v>
       </c>
       <c r="C27" s="3">
+        <f ca="1">_xlfn.XLOOKUP(B27,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>4.9155160000000002</v>
+      </c>
+      <c r="D27" s="4">
+        <f ca="1">_xlfn.XLOOKUP(B27,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.507615999999999</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>545.72550183600003</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6717.6160359360001</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H27" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>568.57551099299997</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6700.8457587809999</v>
-      </c>
-      <c r="G27" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
-        <f t="shared" ref="I27" ca="1" si="20">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <f t="shared" ref="I27" ca="1" si="17">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
-        <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$46,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$46))*1.5</f>
+        <v>61.5</v>
       </c>
       <c r="R27" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="33">
-        <v>17</v>
-      </c>
-      <c r="T27" s="23">
-        <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-      <c r="U27" s="15">
-        <f t="shared" si="18"/>
-        <v>21</v>
-      </c>
-      <c r="V27" s="17">
-        <f t="shared" si="19"/>
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="S27" s="34">
+        <v>15</v>
+      </c>
+      <c r="T27" s="35">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="U27" s="19">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="V27" s="21">
+        <f t="shared" si="16"/>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -2982,22 +2985,22 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="R28" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="S28" s="34">
-        <v>15</v>
-      </c>
-      <c r="T28" s="35">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="U28" s="19">
-        <f t="shared" si="18"/>
-        <v>19</v>
-      </c>
-      <c r="V28" s="21">
-        <f t="shared" si="19"/>
-        <v>23</v>
+        <v>92</v>
+      </c>
+      <c r="S28" s="59">
+        <v>20</v>
+      </c>
+      <c r="T28" s="16">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="U28" s="23">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="V28" s="24">
+        <f t="shared" si="16"/>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -3010,22 +3013,22 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="R29" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="S29" s="59">
-        <v>20</v>
-      </c>
-      <c r="T29" s="16">
-        <f t="shared" si="17"/>
-        <v>27</v>
-      </c>
-      <c r="U29" s="23">
-        <f t="shared" si="18"/>
-        <v>24</v>
-      </c>
-      <c r="V29" s="24">
-        <f t="shared" si="19"/>
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="S29" s="34">
+        <v>15</v>
+      </c>
+      <c r="T29" s="35">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="U29" s="19">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="V29" s="21">
+        <f t="shared" si="16"/>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -3038,22 +3041,22 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="R30" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="S30" s="34">
-        <v>15</v>
-      </c>
-      <c r="T30" s="35">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="U30" s="19">
-        <f t="shared" si="18"/>
-        <v>19</v>
-      </c>
-      <c r="V30" s="21">
-        <f t="shared" si="19"/>
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="S30" s="15">
+        <v>21</v>
+      </c>
+      <c r="T30" s="24">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="U30" s="17">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="V30" s="18">
+        <f t="shared" si="16"/>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -3066,22 +3069,22 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="R31" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="18">
+        <v>29</v>
+      </c>
+      <c r="T31" s="36">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="U31" s="37">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="V31" s="38">
+        <f t="shared" si="16"/>
         <v>37</v>
-      </c>
-      <c r="S31" s="15">
-        <v>21</v>
-      </c>
-      <c r="T31" s="24">
-        <f t="shared" si="17"/>
-        <v>28</v>
-      </c>
-      <c r="U31" s="17">
-        <f t="shared" si="18"/>
-        <v>25</v>
-      </c>
-      <c r="V31" s="18">
-        <f t="shared" si="19"/>
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -3094,22 +3097,22 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="R32" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S32" s="18">
-        <v>29</v>
-      </c>
-      <c r="T32" s="36">
-        <f t="shared" si="17"/>
-        <v>36</v>
-      </c>
-      <c r="U32" s="37">
-        <f t="shared" si="18"/>
-        <v>33</v>
-      </c>
-      <c r="V32" s="38">
-        <f t="shared" si="19"/>
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="S32" s="39">
+        <v>11</v>
+      </c>
+      <c r="T32" s="40">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="U32" s="34">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="V32" s="19">
+        <f t="shared" si="16"/>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3122,22 +3125,20 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="R33" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="S33" s="39">
-        <v>11</v>
-      </c>
-      <c r="T33" s="40">
-        <f t="shared" si="17"/>
-        <v>18</v>
-      </c>
-      <c r="U33" s="34">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="V33" s="19">
-        <f t="shared" si="19"/>
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="S33" s="41"/>
+      <c r="T33" s="42">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="U33" s="43">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="V33" s="44">
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3150,20 +3151,22 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="R34" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="S34" s="41"/>
-      <c r="T34" s="42">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="U34" s="43">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="V34" s="44">
-        <f t="shared" si="19"/>
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="S34" s="45">
+        <v>14</v>
+      </c>
+      <c r="T34" s="15">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="U34" s="40">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="V34" s="35">
+        <f t="shared" si="16"/>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3176,22 +3179,22 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="R35" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="S35" s="45">
-        <v>14</v>
-      </c>
-      <c r="T35" s="15">
-        <f t="shared" si="17"/>
-        <v>21</v>
-      </c>
-      <c r="U35" s="40">
-        <f t="shared" si="18"/>
-        <v>18</v>
-      </c>
-      <c r="V35" s="35">
-        <f t="shared" si="19"/>
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="S35" s="37">
+        <v>33</v>
+      </c>
+      <c r="T35" s="46">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="U35" s="38">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="V35" s="47">
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3204,22 +3207,22 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="R36" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="S36" s="37">
-        <v>33</v>
-      </c>
-      <c r="T36" s="46">
-        <f t="shared" si="17"/>
-        <v>40</v>
-      </c>
-      <c r="U36" s="38">
-        <f t="shared" si="18"/>
-        <v>37</v>
-      </c>
-      <c r="V36" s="47">
-        <f t="shared" si="19"/>
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="S36" s="33">
+        <v>17</v>
+      </c>
+      <c r="T36" s="23">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="U36" s="15">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="V36" s="17">
+        <f t="shared" si="16"/>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3232,22 +3235,22 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="R37" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="S37" s="33">
-        <v>17</v>
-      </c>
-      <c r="T37" s="23">
-        <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-      <c r="U37" s="15">
-        <f t="shared" si="18"/>
-        <v>21</v>
-      </c>
-      <c r="V37" s="17">
-        <f t="shared" si="19"/>
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="S37" s="48">
+        <v>32</v>
+      </c>
+      <c r="T37" s="49">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="U37" s="36">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="V37" s="46">
+        <f t="shared" si="16"/>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3260,22 +3263,22 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="R38" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="S38" s="48">
-        <v>32</v>
-      </c>
-      <c r="T38" s="49">
-        <f t="shared" si="17"/>
-        <v>39</v>
-      </c>
-      <c r="U38" s="36">
-        <f t="shared" si="18"/>
-        <v>36</v>
-      </c>
-      <c r="V38" s="46">
-        <f t="shared" si="19"/>
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="S38" s="38">
+        <v>37</v>
+      </c>
+      <c r="T38" s="50">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="U38" s="47">
+        <f t="shared" si="15"/>
+        <v>41</v>
+      </c>
+      <c r="V38" s="51">
+        <f t="shared" si="16"/>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3288,22 +3291,22 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="R39" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="S39" s="38">
+        <v>94</v>
+      </c>
+      <c r="S39" s="41">
+        <v>30</v>
+      </c>
+      <c r="T39" s="42">
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="T39" s="50">
-        <f t="shared" si="17"/>
-        <v>44</v>
-      </c>
-      <c r="U39" s="47">
-        <f t="shared" si="18"/>
-        <v>41</v>
-      </c>
-      <c r="V39" s="51">
-        <f t="shared" si="19"/>
-        <v>45</v>
+      <c r="U39" s="43">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="V39" s="44">
+        <f t="shared" si="16"/>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3316,22 +3319,22 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="R40" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="S40" s="41">
-        <v>30</v>
-      </c>
-      <c r="T40" s="42">
-        <f t="shared" si="17"/>
-        <v>37</v>
-      </c>
-      <c r="U40" s="43">
-        <f t="shared" si="18"/>
-        <v>34</v>
-      </c>
-      <c r="V40" s="44">
-        <f t="shared" si="19"/>
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="S40" s="46">
+        <v>40</v>
+      </c>
+      <c r="T40" s="27">
+        <f t="shared" si="14"/>
+        <v>47</v>
+      </c>
+      <c r="U40" s="50">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+      <c r="V40" s="52">
+        <f t="shared" si="16"/>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3344,22 +3347,22 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="R41" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41" s="24">
+        <v>28</v>
+      </c>
+      <c r="T41" s="53">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="U41" s="48">
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
-      <c r="S41" s="46">
-        <v>40</v>
-      </c>
-      <c r="T41" s="27">
-        <f t="shared" si="17"/>
-        <v>47</v>
-      </c>
-      <c r="U41" s="50">
-        <f t="shared" si="18"/>
-        <v>44</v>
-      </c>
-      <c r="V41" s="52">
-        <f t="shared" si="19"/>
-        <v>48</v>
+      <c r="V41" s="36">
+        <f t="shared" si="16"/>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3371,23 +3374,23 @@
       <c r="I42" s="63"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="R42" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="S42" s="24">
-        <v>28</v>
-      </c>
-      <c r="T42" s="53">
-        <f t="shared" si="17"/>
-        <v>35</v>
-      </c>
-      <c r="U42" s="48">
-        <f t="shared" si="18"/>
-        <v>32</v>
-      </c>
-      <c r="V42" s="36">
-        <f t="shared" si="19"/>
+      <c r="R42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S42" s="36">
         <v>36</v>
+      </c>
+      <c r="T42" s="25">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="U42" s="46">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="V42" s="50">
+        <f t="shared" si="16"/>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3400,22 +3403,22 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="R43" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="S43" s="36">
-        <v>36</v>
-      </c>
-      <c r="T43" s="25">
-        <f t="shared" si="17"/>
-        <v>43</v>
-      </c>
-      <c r="U43" s="46">
-        <f t="shared" si="18"/>
-        <v>40</v>
-      </c>
-      <c r="V43" s="50">
-        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="S43" s="50">
         <v>44</v>
+      </c>
+      <c r="T43" s="54">
+        <f t="shared" si="14"/>
+        <v>51</v>
+      </c>
+      <c r="U43" s="52">
+        <f t="shared" si="15"/>
+        <v>48</v>
+      </c>
+      <c r="V43" s="28">
+        <f t="shared" si="16"/>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3428,81 +3431,61 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="R44" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="S44" s="50">
-        <v>44</v>
-      </c>
-      <c r="T44" s="54">
-        <f t="shared" si="17"/>
-        <v>51</v>
-      </c>
-      <c r="U44" s="52">
-        <f t="shared" si="18"/>
-        <v>48</v>
-      </c>
-      <c r="V44" s="28">
-        <f t="shared" si="19"/>
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="S44" s="55">
+        <v>30</v>
+      </c>
+      <c r="T44" s="38">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="U44" s="56">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="V44" s="57">
+        <f t="shared" si="16"/>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="S45" s="55">
-        <v>30</v>
-      </c>
-      <c r="T45" s="38">
-        <f t="shared" si="17"/>
-        <v>37</v>
-      </c>
-      <c r="U45" s="56">
-        <f t="shared" si="18"/>
-        <v>34</v>
-      </c>
-      <c r="V45" s="57">
-        <f t="shared" si="19"/>
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="S45" s="34">
+        <v>15</v>
+      </c>
+      <c r="T45" s="35">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="U45" s="19">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="V45" s="21">
+        <f t="shared" si="16"/>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="S46" s="34">
         <v>15</v>
       </c>
-      <c r="T46" s="35">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="U46" s="19">
-        <f t="shared" si="18"/>
-        <v>19</v>
-      </c>
-      <c r="V46" s="21">
-        <f t="shared" si="19"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="R47" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="S47" s="59">
+      <c r="S46" s="59">
         <v>26</v>
       </c>
-      <c r="T47" s="16">
-        <f t="shared" si="17"/>
+      <c r="T46" s="16">
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
-      <c r="U47" s="23">
-        <f t="shared" si="18"/>
+      <c r="U46" s="23">
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="V47" s="24">
-        <f t="shared" si="19"/>
+      <c r="V46" s="24">
+        <f t="shared" si="16"/>
         <v>34</v>
       </c>
     </row>
@@ -4125,50 +4108,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -4186,50 +4169,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4247,50 +4230,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4308,50 +4291,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4389,30 +4372,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4431,50 +4414,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4495,50 +4478,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4547,50 +4530,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4599,23 +4582,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4642,7 +4625,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4651,50 +4634,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4703,50 +4686,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4755,50 +4738,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4807,23 +4790,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4850,7 +4833,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4872,23 +4855,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4915,7 +4898,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4939,50 +4922,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -5006,50 +4989,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -5079,50 +5062,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5152,50 +5135,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5226,50 +5209,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5296,50 +5279,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6357,50 +6340,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -6418,50 +6401,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -6479,23 +6462,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6522,7 +6505,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6540,23 +6523,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6583,7 +6566,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6601,23 +6584,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6644,7 +6627,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6663,23 +6646,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6706,7 +6689,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6727,50 +6710,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6779,50 +6762,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6831,50 +6814,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6883,50 +6866,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6935,23 +6918,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6978,7 +6961,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6987,50 +6970,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -7059,30 +7042,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8295,50 +8278,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8356,50 +8339,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8437,30 +8420,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8478,50 +8461,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8539,50 +8522,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8601,23 +8584,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8644,7 +8627,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8665,23 +8648,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8708,7 +8691,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8717,50 +8700,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8769,50 +8752,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8821,23 +8804,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8864,7 +8847,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -9965,50 +9948,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10035,50 +10018,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -10105,50 +10088,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10166,23 +10149,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10209,7 +10192,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10227,50 +10210,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10288,50 +10271,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10349,50 +10332,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10431,30 +10414,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10495,30 +10478,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11568,50 +11551,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -11638,50 +11621,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -11708,50 +11691,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -11778,50 +11761,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11839,50 +11822,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11900,50 +11883,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11961,50 +11944,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12042,30 +12025,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13150,23 +13133,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -13193,7 +13176,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -13220,23 +13203,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13263,7 +13246,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13290,50 +13273,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances 1,5/Medium4,1.5.xlsx
+++ b/Medium Instances 1,5/Medium4,1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0D5DBB-9F23-47F6-9898-BD1F6B9E0886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80CFA15-2689-48E3-B897-317086CA9505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium4" sheetId="13" r:id="rId1"/>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8967E-DDA4-AF48-907C-081AAC0FA9EF}">
   <dimension ref="A1:AB932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1193,51 +1193,51 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Ebbesvika</v>
+        <f t="shared" ref="B2:B27" ca="1" si="0">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <v>Brattholmen</v>
       </c>
       <c r="C2" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1401279999999998</v>
+        <f t="shared" ref="C2:C27" ca="1" si="1">_xlfn.XLOOKUP(B2,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D2" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.336067999999997</v>
+        <f t="shared" ref="D2:D27" ca="1" si="2">_xlfn.XLOOKUP(B2,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <v>60.354616</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>570.662150688</v>
+        <f t="shared" ref="E2:F17" ca="1" si="3">C2*111.021</f>
+        <v>572.01061175400002</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6698.5706054279999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6700.629822936</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G8" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <f t="shared" ref="G2:G8" ca="1" si="4">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J2:K17" ca="1" si="5">H2*111.021</f>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$46,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>40.5</v>
+        <v>25.5</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1267,51 +1267,51 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Arefjord</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Telavåg</v>
       </c>
       <c r="C3" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1424630000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D3" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.358854999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.261564</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>570.92138472300007</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>553.10906446199999</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6701.1004409549996</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3" ca="1" si="3">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$46,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>28.5</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1343,51 +1343,51 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Hellesøy</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Skogsvåg</v>
       </c>
       <c r="C4" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>4.7908670000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D4" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.661020999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.25994</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>531.88684520700008</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>565.89468690599995</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6734.6472124410002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G4" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$46,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>97.5</v>
+        <v>61.5</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1416,43 +1416,43 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Solsvik</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Kleppestø</v>
       </c>
       <c r="C5" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B5,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>4.9664089999999996</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D5" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B5,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.431001999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.187809999999999</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>570.19997026499993</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Årstad</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H27" ca="1" si="4">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <f t="shared" ref="H5:H27" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
         <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I5:I26" ca="1" si="5">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f t="shared" ref="I5:I26" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$46,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>60</v>
+        <v>37.5</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1489,51 +1489,51 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Solsvik</v>
       </c>
       <c r="C6" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1060850000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D6" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.354084999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.431001999999999</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>551.37569358899998</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J6" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>60.290962</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$46,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>28.5</v>
+        <v>60</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1562,27 +1562,27 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Skogsvåg</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Rongøy</v>
       </c>
       <c r="C7" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.0971859999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D7" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.25994</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.507615999999999</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7:E8" ca="1" si="6">C7*111.021</f>
-        <v>565.89468690599995</v>
+        <f t="shared" ref="E7:E8" ca="1" si="9">C7*111.021</f>
+        <v>545.72550183600003</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F8" ca="1" si="7">D7*111.021</f>
-        <v>6690.1187987399999</v>
+        <f t="shared" ref="F7:F8" ca="1" si="10">D7*111.021</f>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
@@ -1594,11 +1594,11 @@
         <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" ref="J7:J8" ca="1" si="8">H7*111.021</f>
+        <f t="shared" ref="J7:J8" ca="1" si="11">H7*111.021</f>
         <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7:K8" ca="1" si="9">I7*111.021</f>
+        <f t="shared" ref="K7:K8" ca="1" si="12">I7*111.021</f>
         <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$46,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1626,43 +1626,43 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Hjelteryggen</v>
       </c>
       <c r="C8" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B8,$W$3:$W$25,$X$3:$X$25,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>5.1544819999999998</v>
       </c>
       <c r="D8" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B8,$W$3:$W$25,$Y$3:$Y$25,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60.381360999999998</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>572.25574612200001</v>
       </c>
       <c r="F8" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>6703.5990795810003</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>6703.5990795810003</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" ca="1" si="4"/>
         <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
-        <f t="shared" ref="I8" ca="1" si="10">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f t="shared" ref="I8" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -1690,51 +1690,51 @@
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Arefjord</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Landro</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B9,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1424630000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D9" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B9,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.358854999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.423364999999997</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>570.92138472300007</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>551.464510389</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6701.1004409549996</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" ref="G9:G27" ca="1" si="11">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <f t="shared" ref="G9:G27" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J9" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$46,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>22.5</v>
+        <v>55.5</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1751,51 +1751,51 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Blomøy</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B10,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>4.8927480000000001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B10,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.538108000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>543.19777570799999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6721.0012882680003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.379098999999997</v>
+      </c>
+      <c r="J10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>60.290962</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$46,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>70.5</v>
+        <v>31.5</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1812,51 +1812,51 @@
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Hjelteryggen</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Blomøy</v>
       </c>
       <c r="C11" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B11,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1544819999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D11" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B11,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.381360999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.538108000000001</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.25574612200001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>543.19777570799999</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.5990795810003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.379098999999997</v>
+      </c>
+      <c r="J11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>60.395409000000001</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$46,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>31.5</v>
+        <v>64.5</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1874,51 +1874,51 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Knarrevik</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B12,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1530250000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B12,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.368082999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>60.395409000000001</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$46,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>27</v>
+        <v>34.5</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1938,51 +1938,51 @@
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Brattholmen</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B13,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1522740000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B13,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.354616</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$46,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>25.5</v>
+        <v>51</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1999,51 +1999,51 @@
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Knappskog</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Blomøy</v>
       </c>
       <c r="C14" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B14,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.0559289999999999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D14" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B14,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.382877999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.538108000000001</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>543.19777570799999</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.290962</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>60.395409000000001</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$46,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>40.5</v>
+        <v>70.5</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2060,51 +2060,51 @@
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Kårtveit</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Blomøy</v>
       </c>
       <c r="C15" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B15,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>4.9934529999999997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D15" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B15,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.538108000000001</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>543.19777570799999</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J15" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$46,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s">
         <v>47</v>
@@ -2121,51 +2121,51 @@
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Landro</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B16,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>4.9672090000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B16,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.423364999999997</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.395409000000001</v>
+      </c>
+      <c r="J16" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>60.290962</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$46,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>49.5</v>
+        <v>33</v>
       </c>
       <c r="W16" t="s">
         <v>92</v>
@@ -2182,51 +2182,51 @@
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Solsvik</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B17,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>4.9664089999999996</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B17,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.431001999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J17" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$46,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W17" t="s">
         <v>49</v>
@@ -2243,51 +2243,51 @@
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Tofterøy</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B18,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.0525099999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B18,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.185890000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ref="E18:F27" ca="1" si="12">C18*111.021</f>
-        <v>560.93471270999999</v>
+        <f t="shared" ref="E18:F27" ca="1" si="15">C18*111.021</f>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6681.8976936899999</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.290962</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" ref="J18:K27" ca="1" si="13">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <f t="shared" ref="J18:K27" ca="1" si="16">H18*111.021</f>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$46,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>72</v>
+        <v>25.5</v>
       </c>
       <c r="W18" t="s">
         <v>51</v>
@@ -2304,51 +2304,51 @@
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Arefjord</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Kleppestø</v>
       </c>
       <c r="C19" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B19,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1424630000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D19" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B19,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.358854999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.187809999999999</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>570.92138472300007</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>570.19997026499993</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6701.1004409549996</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.290962</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$46,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>28.5</v>
+        <v>25.5</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2378,51 +2378,51 @@
         <v>26</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Foldnes</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B20,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1065680000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B20,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.375988</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>566.93628592800007</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$46,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2454,51 +2454,51 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Brattholmen</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Træsneset</v>
       </c>
       <c r="C21" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B21,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1522740000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D21" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B21,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.354616</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.227445000000003</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>572.01061175400002</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>562.62611764500002</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6700.629822936</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.379098999999997</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$46,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>25.5</v>
+        <v>60</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2530,43 +2530,43 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Straume</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Skogsvåg</v>
       </c>
       <c r="C22" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B22,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1213329999999999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D22" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B22,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.356560999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.25994</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>568.57551099299997</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>565.89468690599995</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$46,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2607,51 +2607,51 @@
         <v>26</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Rongøy</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Spjeld</v>
       </c>
       <c r="C23" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B23,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>4.9155160000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D23" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B23,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.507615999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.390343000000001</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>545.72550183600003</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>559.50231976800001</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6717.6160359360001</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$46,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>66</v>
+        <v>37.5</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2684,51 +2684,51 @@
         <v>26</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Foldnes</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B24,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.1065680000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B24,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.375988</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>566.93628592800007</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$46,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>40.5</v>
+        <v>31.5</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2761,51 +2761,51 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Hammersland</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Knarrevik</v>
       </c>
       <c r="C25" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B25,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.0687990000000003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D25" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B25,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.259569999999997</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.368082999999999</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>562.743133779</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>572.0939885250001</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6690.07772097</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$46,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>57</v>
+        <v>22.5</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2814,15 +2814,15 @@
         <v>20</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:T46" si="14">S25+7</f>
+        <f t="shared" ref="T25:T46" si="17">S25+7</f>
         <v>27</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" ref="U25:U46" si="15">S25+4</f>
+        <f t="shared" ref="U25:U46" si="18">S25+4</f>
         <v>24</v>
       </c>
       <c r="V25" s="24">
-        <f t="shared" ref="V25:V46" si="16">S25+8</f>
+        <f t="shared" ref="V25:V46" si="19">S25+8</f>
         <v>28</v>
       </c>
       <c r="W25" t="s">
@@ -2840,43 +2840,43 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Kolltveit</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Kleppestø</v>
       </c>
       <c r="C26" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B26,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>5.0878129999999997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D26" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B26,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.352223000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.187809999999999</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>564.85408707299996</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>570.19997026499993</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6700.3641496830005</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>Årstad</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$46,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>40.5</v>
+        <v>37.5</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>39</v>
@@ -2893,15 +2893,15 @@
         <v>17</v>
       </c>
       <c r="T26" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="U26" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="V26" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
     </row>
@@ -2910,51 +2910,51 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f ca="1">INDEX($W$3:$W$25,RANDBETWEEN(1,ROWS($W$3:$W$25)),1)</f>
-        <v>Rongøy</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Landro</v>
       </c>
       <c r="C27" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B27,$W$3:$W$25,$X$3:$X$25,0)</f>
-        <v>4.9155160000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D27" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B27,$W$3:$W$25,$Y$3:$Y$25,0)</f>
-        <v>60.507615999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.423364999999997</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>545.72550183600003</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>551.464510389</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ca="1" si="12"/>
-        <v>6717.6160359360001</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I27" s="63">
-        <f t="shared" ref="I27" ca="1" si="17">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <f t="shared" ref="I27" ca="1" si="20">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.395409000000001</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$46,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$46))*1.5</f>
-        <v>61.5</v>
+        <v>54</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>47</v>
@@ -2963,15 +2963,15 @@
         <v>15</v>
       </c>
       <c r="T27" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="U27" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="V27" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
     </row>
@@ -2991,15 +2991,15 @@
         <v>20</v>
       </c>
       <c r="T28" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="U28" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="V28" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
     </row>
@@ -3019,15 +3019,15 @@
         <v>15</v>
       </c>
       <c r="T29" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="U29" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="V29" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
     </row>
@@ -3047,15 +3047,15 @@
         <v>21</v>
       </c>
       <c r="T30" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="U30" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="V30" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
     </row>
@@ -3075,15 +3075,15 @@
         <v>29</v>
       </c>
       <c r="T31" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="U31" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="V31" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
     </row>
@@ -3103,15 +3103,15 @@
         <v>11</v>
       </c>
       <c r="T32" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="U32" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="V32" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
     </row>
@@ -3129,15 +3129,15 @@
       </c>
       <c r="S33" s="41"/>
       <c r="T33" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="U33" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V33" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
@@ -3157,15 +3157,15 @@
         <v>14</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="U34" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="V34" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
     </row>
@@ -3185,15 +3185,15 @@
         <v>33</v>
       </c>
       <c r="T35" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="U35" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
       <c r="V35" s="47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>41</v>
       </c>
     </row>
@@ -3213,15 +3213,15 @@
         <v>17</v>
       </c>
       <c r="T36" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="U36" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="V36" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
     </row>
@@ -3241,15 +3241,15 @@
         <v>32</v>
       </c>
       <c r="T37" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="U37" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="V37" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
     </row>
@@ -3269,15 +3269,15 @@
         <v>37</v>
       </c>
       <c r="T38" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="U38" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="V38" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>45</v>
       </c>
     </row>
@@ -3297,15 +3297,15 @@
         <v>30</v>
       </c>
       <c r="T39" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="U39" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
       <c r="V39" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>38</v>
       </c>
     </row>
@@ -3325,15 +3325,15 @@
         <v>40</v>
       </c>
       <c r="T40" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
       <c r="U40" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="V40" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
     </row>
@@ -3353,15 +3353,15 @@
         <v>28</v>
       </c>
       <c r="T41" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="U41" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="V41" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
     </row>
@@ -3381,15 +3381,15 @@
         <v>36</v>
       </c>
       <c r="T42" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="U42" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="V42" s="50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>44</v>
       </c>
     </row>
@@ -3409,15 +3409,15 @@
         <v>44</v>
       </c>
       <c r="T43" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
       <c r="U43" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="V43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>52</v>
       </c>
     </row>
@@ -3437,15 +3437,15 @@
         <v>30</v>
       </c>
       <c r="T44" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="U44" s="56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
       <c r="V44" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>38</v>
       </c>
     </row>
@@ -3457,15 +3457,15 @@
         <v>15</v>
       </c>
       <c r="T45" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="U45" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="V45" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
     </row>
@@ -3477,15 +3477,15 @@
         <v>26</v>
       </c>
       <c r="T46" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="U46" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="V46" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
     </row>
@@ -4108,50 +4108,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -4169,50 +4169,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4230,50 +4230,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4291,50 +4291,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4352,50 +4352,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4414,23 +4414,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4478,50 +4478,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4530,50 +4530,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4582,50 +4582,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4634,50 +4634,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4686,23 +4686,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4738,23 +4738,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4790,50 +4790,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4855,50 +4855,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4922,50 +4922,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4989,50 +4989,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -5082,30 +5082,30 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5135,50 +5135,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5209,23 +5209,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5279,50 +5279,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6340,50 +6340,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -6401,23 +6401,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -6462,50 +6462,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6523,50 +6523,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6584,23 +6584,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6646,50 +6646,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6762,23 +6762,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6814,50 +6814,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6866,50 +6866,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6970,23 +6970,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -7042,30 +7042,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8278,23 +8278,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8339,23 +8339,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8420,30 +8420,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8461,50 +8461,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8522,50 +8522,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8584,23 +8584,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8648,23 +8648,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8700,50 +8700,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8752,23 +8752,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8804,50 +8804,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -9948,50 +9948,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10018,23 +10018,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -10088,50 +10088,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10149,50 +10149,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10210,50 +10210,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10271,50 +10271,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10332,50 +10332,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10394,50 +10394,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10458,50 +10458,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11551,50 +11551,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -11691,50 +11691,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -11761,50 +11761,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11822,23 +11822,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11883,50 +11883,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11944,50 +11944,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12005,50 +12005,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13133,23 +13133,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -13203,50 +13203,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13273,50 +13273,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
